--- a/biology/Médecine/Zhen-Yi_Wang/Zhen-Yi_Wang.xlsx
+++ b/biology/Médecine/Zhen-Yi_Wang/Zhen-Yi_Wang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zhen-Yi Wang (chinois simplifié : 王振义 ; pinyin : Wáng Zhènyì) est un physiopathologiste, hématologue et professeur émérite de médecine et de physiopathologie à l'Université Jiao-tong de Shanghai, en Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zhen-Yi Wang est né en novembre 1924 à Shanghai, bien que sa famille soit originaire de Yixing, dans la province du Jiangsu. Il obtient son diplôme de médecine de l'Université l'Aurore à Shanghai, en 1948.
 Entre 1948 et 1960, Wang complète sa résidence puis pratique la médecine à l'hôpital Ruijin à Shanghai. De 1960 à 1982, il enseigne à ce qui est maintenant l'École de médecine de l'Université Jiao-tong de Shanghai. Il devient doyen des départements de pathologie et de physiologie. De 1982 à 1984, Wang dirige la Division de médecine de base de l'Université. De 1984 à 1988, l'homme de science assure la présidence de l'Université. De 1987 à 1996, il dirige l'Institut d'hématologie de Shanghai (SIH), dont il est maintenant le directeur honoraire.
@@ -545,7 +559,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1992, Associé étranger, Académie des sciences, France
 1993, Légion d'honneur, France
